--- a/data/po_gov.xlsx
+++ b/data/po_gov.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tn/Documents/DISSERTATION_Elite networks/elite_network/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FE0E47-7A94-2C44-99A6-A5968FBDDB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6E99D5-0C99-C648-9394-D51CDBE84241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4820" yWindow="500" windowWidth="37660" windowHeight="23000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2343,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6129,7 +6129,7 @@
         <v>521</v>
       </c>
       <c r="I123" s="2">
-        <v>1838</v>
+        <v>1938</v>
       </c>
       <c r="J123" s="31" t="s">
         <v>120</v>
